--- a/biology/Zoologie/Amnios/Amnios.xlsx
+++ b/biology/Zoologie/Amnios/Amnios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'amnios est l'enveloppe qui se constitue autour de l'embryon (puis du fœtus) des amniotes et qui a pour rôle de le protéger. L'amnios et le chorion forment ensemble la paroi du sac amniotique qui maintient autour de l'embryon un liquide amniotique protégeant l'embryon des chocs et de la déshydratation. Il caractérise les amniotes et correspond à une adaptation très importante à la vie en milieu aérien.
 Ce sac amniotique est fabriqué à partir de l'ectoderme et du mésoderme (somatopleure) de l'embryon, ce qui fait de l'amnios une annexe embryonnaire. Par opposition, le placenta est lui d'origine fœto-maternelle.
